--- a/individual_case_outputs/avey/148.xlsx
+++ b/individual_case_outputs/avey/148.xlsx
@@ -650,7 +650,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>hyperthyroidism</t>
+          <t>choriocarcinoma</t>
         </is>
       </c>
     </row>
@@ -704,11 +704,7 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>grave's disease</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -748,11 +744,7 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>choriocarcinoma</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
